--- a/dist/frontend/assets/files/Instructivo_Riesgo.xlsx
+++ b/dist/frontend/assets/files/Instructivo_Riesgo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeine\Desktop\Codigos\CAPCOM\src\assets\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeine\Desktop\Codigos\CAPCOM\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B452154-C79B-4675-914A-2E7DD9E9815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39F5F6-4D7C-4875-9EAE-298FFCA2A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB7424FE-B79F-409D-9AEA-AD2D752A463B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>Descripcion</t>
   </si>
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,7 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A020EF-8949-46D6-9692-9314E139A1BD}">
-  <dimension ref="B3:J28"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,7 +914,7 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="9"/>
       <c r="E11" s="1">
         <v>1</v>
       </c>
@@ -967,7 +966,7 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="9"/>
       <c r="E15" s="1">
         <v>1</v>
       </c>
@@ -989,117 +988,11 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
